--- a/NVIDIA_CUDA-5.0_Samples/0_Simple/matrixMul/性能报告-matrixMul.xlsx
+++ b/NVIDIA_CUDA-5.0_Samples/0_Simple/matrixMul/性能报告-matrixMul.xlsx
@@ -12,11 +12,12 @@
     <sheet name="VisualProfiler" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>Device 0: "GeForce GTX 480"</t>
   </si>
@@ -60,16 +61,7 @@
     <t xml:space="preserve">  Total amount of constant memory:               65536 bytes</t>
   </si>
   <si>
-    <t xml:space="preserve">  Total amount of shared memory per block:       49152 bytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Total number of registers available per block: 32768</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Warp size:                                     32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Maximum number of threads per multiprocessor:  1536</t>
   </si>
   <si>
     <t xml:space="preserve">  Maximum number of threads per block:           1024</t>
@@ -290,6 +282,102 @@
     <t>Memory Write
 Band
 GB/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shared Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Total number of registers available per block: 32768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Maximum number of threads per multiprocessor:  1536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Total amount of shared memory per block:       49152 bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threads Act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks Act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocks act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwith
+(GB/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFLOPS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwith
+(GB/s)Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwith
+(GB/s)Write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructions
+GFLOPS </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,6 +574,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -785,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -877,7 +971,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -887,7 +981,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -897,12 +991,12 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -912,7 +1006,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -922,97 +1016,97 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D43" s="3">
         <v>384</v>
@@ -1020,7 +1114,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>3696</v>
@@ -1028,7 +1122,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D45" s="6">
         <f>D43/8*D44/1000</f>
@@ -1037,7 +1131,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D47">
         <v>480</v>
@@ -1045,7 +1139,7 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D48" s="3">
         <v>1401</v>
@@ -1053,7 +1147,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49" s="6">
         <f>D47*D48/1000*2</f>
@@ -1075,7 +1169,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1095,42 +1189,42 @@
   <sheetData>
     <row r="2" spans="2:13" ht="54">
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10">
         <f>2^10</f>
@@ -1155,12 +1249,12 @@
         <v>2.9</v>
       </c>
       <c r="J3" s="13">
-        <f>SUM(E3:E5)/H3</f>
-        <v>3.0769230769230771</v>
+        <f>(E3+E4)/H3</f>
+        <v>2.0512820512820515</v>
       </c>
       <c r="K3" s="13">
-        <f>SUM(E3:E5)/I3</f>
-        <v>4.1379310344827589</v>
+        <f>E5/I3</f>
+        <v>1.3793103448275863</v>
       </c>
       <c r="L3" s="14">
         <v>1.3999999999999999E-4</v>
@@ -1171,7 +1265,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10">
         <f>2^10</f>
@@ -1182,13 +1276,13 @@
         <v>1024</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" ref="E4:E5" si="0">C4*D4*4/(2^20)</f>
+        <f>C4*D4*4/(2^20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10">
         <f>C4</f>
@@ -1199,39 +1293,39 @@
         <v>1024</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" si="0"/>
+        <f>C5*D5*4/(2^20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="E6" s="8"/>
     </row>
-    <row r="8" spans="2:13" ht="54">
+    <row r="8" spans="2:13" ht="40.5">
       <c r="B8" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10">
         <v>20</v>
@@ -1252,7 +1346,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="19">
         <v>9.1</v>
@@ -1280,7 +1374,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13">
         <v>9</v>
@@ -1300,7 +1394,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10">
         <v>2.65</v>
@@ -1328,16 +1422,16 @@
     </row>
     <row r="14" spans="2:13">
       <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -1368,10 +1462,10 @@
     </row>
     <row r="19" spans="2:9" ht="40.5">
       <c r="B19" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1389,12 +1483,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="E2" s="21"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" ht="27">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>32768</v>
+      </c>
+      <c r="D6">
+        <v>49152</v>
+      </c>
+      <c r="E6">
+        <v>1536</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>177</v>
+      </c>
+      <c r="H6">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <f>C9*E9</f>
+        <v>23552</v>
+      </c>
+      <c r="D10">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <f>INT(C6/C10)</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>INT(D6/D10)</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f>INT(E6/E9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:8" ht="40.5" customHeight="1">
+      <c r="C14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>9.6</v>
+      </c>
+      <c r="D15">
+        <v>0.44</v>
+      </c>
+      <c r="E15" s="4">
+        <f>9.5*10^(7-9)/(9*10^-3)</f>
+        <v>10.555555555555554</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="9">
+        <f>C15/G6</f>
+        <v>5.4237288135593219E-2</v>
+      </c>
+      <c r="E16" s="9">
+        <f>E15/H6</f>
+        <v>7.8479966955803376E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C13:E13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
